--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667562E6-7D16-48EE-91C8-810E35C2E06B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18D9AF-D902-472E-B932-2FEB8D4D5824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Listing out possibilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Identify Next MVP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,33 +35,121 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={454A1C68-EB5F-4834-B639-9D142BA6BC9D}</author>
-    <author>tc={C3ADBBA1-F56B-4E9D-83EE-5A242512D345}</author>
-    <author>tc={825BD3C0-C530-4DA0-A8A6-C9C88D5CE162}</author>
+    <author>Anandan Kumaran</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{454A1C68-EB5F-4834-B639-9D142BA6BC9D}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{4431835B-C736-46B2-9827-DD3398A60702}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Physical Location / Biz Area / Module / Process</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anandan Kumaran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Where will this possibility be executed? Do I know the area / location
+Physical Location / Biz Area / Module / Process
+For example which process step or which module or which department where the MVP has to executed</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{C3ADBBA1-F56B-4E9D-83EE-5A242512D345}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{EE951F84-A4F9-4694-B4D2-112B1B4D7268}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Skills / People / Money / Time</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anandan Kumaran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Skills / People / Money / Time
+Do I have the right skills /  people or money ot the time to to execute the possibility in the next 2 week ?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="2" shapeId="0" xr:uid="{825BD3C0-C530-4DA0-A8A6-C9C88D5CE162}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{E0539A80-CA61-431A-8BE2-B8E6282F0B25}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Clarity of implementation / Decomposable</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anandan Kumaran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Clarity of implementation   
+Is there a clarity of implementation ? </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -69,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -98,9 +186,6 @@
     <t>How</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>P6</t>
   </si>
   <si>
@@ -119,92 +204,53 @@
     <t>Resources</t>
   </si>
   <si>
-    <t>Zoom channel for kids</t>
-  </si>
-  <si>
-    <t>Create a fractal for kids - 2 week challenge ( 8 -12 )</t>
-  </si>
-  <si>
     <t>P8</t>
   </si>
   <si>
-    <t>Do it yourself channel - Cholan</t>
-  </si>
-  <si>
     <t>P9</t>
   </si>
   <si>
     <t>P10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tiny Adults Hour  ( same as P5/P8 ) - Menakai /Kumaran / Cholan</t>
-  </si>
-  <si>
-    <t>Experiences of remote working parent - Kumaran Interviews</t>
-  </si>
-  <si>
-    <t>Parenting in time of panic -Sukumar interview me ( Sunday 5:30 - 6:30 PM )</t>
-  </si>
-  <si>
-    <t>Workout with kids hour - Sukumar</t>
-  </si>
-  <si>
     <t>P11</t>
   </si>
   <si>
-    <t xml:space="preserve">Magiq Ears release to public - Sukumar to publish on SM. </t>
-  </si>
-  <si>
-    <t>Do a video talking about work assignment - Kumaran Interviews - Friday 10:30 AM -11:30 AM</t>
-  </si>
-  <si>
-    <t>Tips to increase immunity - Dhana interview Anbu</t>
-  </si>
-  <si>
     <t>P12</t>
   </si>
   <si>
-    <t>DIY immunity recipe - Aparna / Menakai with Gautam</t>
-  </si>
-  <si>
-    <t>Release the app game clapping without authentication with score ( android ) - Menakai</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>No clue</t>
-  </si>
-  <si>
-    <t>not tested</t>
-  </si>
-  <si>
-    <t>too hard to keep it running to get kids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enabling Remote Working </t>
-  </si>
-  <si>
     <t>Possibility Filter V6</t>
   </si>
   <si>
     <t>Possibility Execution Confidence Rating</t>
   </si>
   <si>
-    <t>3. Trim Tab Step Identified</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>3. Customer journey from PUX Tool</t>
+    <t>From PUX sheet</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>Feasibility</t>
+  </si>
+  <si>
+    <t>Customer journey from PUX Tool</t>
+  </si>
+  <si>
+    <t>Trim Tab Step Identified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +331,54 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -330,30 +424,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -419,17 +493,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -682,11 +745,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCC0099"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCC0099"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -697,15 +773,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -718,92 +788,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF660033"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF660033"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFF66CC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF66CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -892,26 +1034,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF660033"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF002060"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -983,46 +1105,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF660033"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFFF66CC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF66CC"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color rgb="FFFF66CC"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFF66CC"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1046,32 +1128,29 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Anandan Kumaran" id="{5E6BA207-EE79-4484-A911-6D4840A56233}" userId="b67183372b1239e4" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{408707AA-3B5A-4F8A-BB1D-16E7E220C02C}" name="Table1" displayName="Table1" ref="B10:C22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{408707AA-3B5A-4F8A-BB1D-16E7E220C02C}" name="Table1" displayName="Table1" ref="B14:C26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="10">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A1834E27-94EC-4053-8656-C0CB318E128C}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D6C2D0AD-C2F2-4490-B0EB-51ECE27D70FE}" name="Possibilities" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{A1834E27-94EC-4053-8656-C0CB318E128C}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D6C2D0AD-C2F2-4490-B0EB-51ECE27D70FE}" name="Possibilities" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361E96DA-2FC8-4379-93F2-4D648DEA3C15}" name="Table2" displayName="Table2" ref="D10:H22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="D10:H22" xr:uid="{4C205AB0-03C3-4750-A08C-35E222F1637D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361E96DA-2FC8-4379-93F2-4D648DEA3C15}" name="Table2" displayName="Table2" ref="D14:H26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="7">
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{4DCD6222-9668-4BE9-B0E8-A614070CB77C}" name="Where" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DFC55628-5C2D-426C-9D40-7F02EDA38FB4}" name="Resources" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3F4F6365-C778-4018-A452-6FAD76496835}" name="How" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{41C8534F-B9D3-4A09-ACE1-1BDD1A45149B}" name="Total" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{4DCD6222-9668-4BE9-B0E8-A614070CB77C}" name="Where" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DFC55628-5C2D-426C-9D40-7F02EDA38FB4}" name="Resources" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3F4F6365-C778-4018-A452-6FAD76496835}" name="How" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{41C8534F-B9D3-4A09-ACE1-1BDD1A45149B}" name="Feasibility" dataDxfId="3">
       <calculatedColumnFormula>AVERAGE(Table2[[#This Row],[Where]:[How]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BE700835-D18A-4DE3-A809-981BE1CE6788}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{BE700835-D18A-4DE3-A809-981BE1CE6788}" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1372,481 +1451,453 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D10" dT="2020-03-19T06:52:13.67" personId="{5E6BA207-EE79-4484-A911-6D4840A56233}" id="{454A1C68-EB5F-4834-B639-9D142BA6BC9D}">
-    <text>Physical Location / Biz Area / Module / Process</text>
-  </threadedComment>
-  <threadedComment ref="E10" dT="2020-03-19T06:53:01.25" personId="{5E6BA207-EE79-4484-A911-6D4840A56233}" id="{C3ADBBA1-F56B-4E9D-83EE-5A242512D345}">
-    <text>Skills / People / Money / Time</text>
-  </threadedComment>
-  <threadedComment ref="F10" dT="2020-03-19T06:52:23.20" personId="{5E6BA207-EE79-4484-A911-6D4840A56233}" id="{825BD3C0-C530-4DA0-A8A6-C9C88D5CE162}">
-    <text>Clarity of implementation / Decomposable</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
-  <dimension ref="B1:L23"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="72" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="46" style="10" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="11" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="15">
+    <row r="1" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="43"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="35">
         <v>3</v>
       </c>
-      <c r="I2" s="8">
+      <c r="G5" s="36">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="16">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="17">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="37">
+        <v>2</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="39">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" s="9" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="C14" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="22">
-        <v>3</v>
-      </c>
-      <c r="E11" s="22">
-        <v>3</v>
-      </c>
-      <c r="F11" s="22">
-        <v>3</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
         <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>3</v>
-      </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="22">
-        <v>3</v>
-      </c>
-      <c r="E12" s="22">
-        <v>3</v>
-      </c>
-      <c r="F12" s="22">
-        <v>3</v>
-      </c>
-      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
         <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>3</v>
-      </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="22">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22">
-        <v>3</v>
-      </c>
-      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
         <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="22">
-        <v>3</v>
-      </c>
-      <c r="E14" s="22">
-        <v>2</v>
-      </c>
-      <c r="F14" s="22">
-        <v>3</v>
-      </c>
-      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
         <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
         <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
         <v>1</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="22">
-        <v>3</v>
-      </c>
-      <c r="E17" s="22">
-        <v>3</v>
-      </c>
-      <c r="F17" s="22">
-        <v>3</v>
-      </c>
-      <c r="G17" s="22">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>3</v>
-      </c>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="22">
-        <v>3</v>
-      </c>
-      <c r="E19" s="22">
-        <v>3</v>
-      </c>
-      <c r="F19" s="22">
-        <v>3</v>
-      </c>
-      <c r="G19" s="22">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>3</v>
-      </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="22">
-        <v>3</v>
-      </c>
-      <c r="E21" s="22">
-        <v>3</v>
-      </c>
-      <c r="F21" s="22">
-        <v>3</v>
-      </c>
-      <c r="G21" s="22">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>3</v>
-      </c>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="30">
-        <v>3</v>
-      </c>
-      <c r="E22" s="30">
-        <v>3</v>
-      </c>
-      <c r="F22" s="30">
-        <v>3</v>
-      </c>
-      <c r="G22" s="30">
-        <f>AVERAGE(Table2[[#This Row],[Where]:[How]])</f>
-        <v>3</v>
-      </c>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="3"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:G22">
+  <conditionalFormatting sqref="D15:G26">
     <cfRule type="iconSet" priority="4">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1855,7 +1906,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="G5:G7">
     <cfRule type="iconSet" priority="3">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Tiny Magiq Client Work\1 - Hipoha Program Process\MVP Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA17EE1-0706-40F0-9A50-4181C08B105C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F4AE7-88E8-4AF8-BA54-8EBAB2674F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -101,70 +101,28 @@
     <t>Resources</t>
   </si>
   <si>
-    <t>Zoom channel for kids</t>
-  </si>
-  <si>
-    <t>Create a fractal for kids - 2 week challenge ( 8 -12 )</t>
-  </si>
-  <si>
     <t>P8</t>
   </si>
   <si>
-    <t>Do it yourself channel - Cholan</t>
-  </si>
-  <si>
     <t>P9</t>
   </si>
   <si>
     <t>P10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tiny Adults Hour  ( same as P5/P8 ) - Menakai /Kumaran / Cholan</t>
-  </si>
-  <si>
-    <t>Experiences of remote working parent - Kumaran Interviews</t>
-  </si>
-  <si>
-    <t>Parenting in time of panic -Sukumar interview me ( Sunday 5:30 - 6:30 PM )</t>
-  </si>
-  <si>
-    <t>Workout with kids hour - Sukumar</t>
-  </si>
-  <si>
     <t>P11</t>
   </si>
   <si>
-    <t xml:space="preserve">Magiq Ears release to public - Sukumar to publish on SM. </t>
-  </si>
-  <si>
-    <t>Do a video talking about work assignment - Kumaran Interviews - Friday 10:30 AM -11:30 AM</t>
-  </si>
-  <si>
-    <t>Tips to increase immunity - Dhana interview Anbu</t>
-  </si>
-  <si>
     <t>P12</t>
   </si>
   <si>
-    <t>DIY immunity recipe - Aparna / Menakai with Gautam</t>
-  </si>
-  <si>
-    <t>Release the app game clapping without authentication with score ( android ) - Menakai</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>TRAFFIC LIGHT MODEL</t>
   </si>
   <si>
-    <t>No clue</t>
-  </si>
-  <si>
     <t>not tested</t>
-  </si>
-  <si>
-    <t>too hard to keep it running to get kids</t>
   </si>
   <si>
     <t>P13</t>
@@ -227,15 +185,6 @@
     <t xml:space="preserve">1. Duration should not be more than 2 weeks. It can be shorter
 2. 95% confidence that it can be done in weeks
 </t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>EWR</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t xml:space="preserve">1. Identity a Functional Area preferably in your scope of responsibility </t>
@@ -277,6 +226,27 @@
       </rPr>
       <t>Fast (Agile)   /   Easy (Convenient /  Frugal (Economic) / Secure(Safe)</t>
     </r>
+  </si>
+  <si>
+    <t>Customer Support executive</t>
+  </si>
+  <si>
+    <t>Fast &amp; Economic</t>
+  </si>
+  <si>
+    <t>Have a separate phone for sending this whatsapp</t>
+  </si>
+  <si>
+    <t>Sending "How-To" video by whatsapp to new customer based on excel data</t>
+  </si>
+  <si>
+    <t>RPA to read excel and then post into Whatsapp</t>
+  </si>
+  <si>
+    <t>Have another executice handle this step</t>
+  </si>
+  <si>
+    <t>No expertise on RPA</t>
   </si>
 </sst>
 </file>
@@ -942,6 +912,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -977,21 +962,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,7 +1435,7 @@
   <dimension ref="B1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,11 +1456,11 @@
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="42" t="s">
-        <v>31</v>
+      <c r="D2" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="9">
         <v>3</v>
@@ -1504,7 +1474,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="13">
         <v>2</v>
       </c>
@@ -1517,7 +1487,7 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="15">
         <v>1</v>
       </c>
@@ -1530,78 +1500,78 @@
     </row>
     <row r="5" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="2"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="C7" s="53" t="s">
-        <v>54</v>
+      <c r="C7" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
-      <c r="C8" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="C8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+        <v>42</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="2:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
@@ -1620,25 +1590,25 @@
         <v>8</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D13" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="28">
         <f>AVERAGE('Listing out possibilities'!$D13:$E13)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="36"/>
     </row>
@@ -1647,48 +1617,46 @@
         <v>3</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D14" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="29">
         <f>AVERAGE('Listing out possibilities'!$D14:$E14)</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D15" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="28">
         <f>AVERAGE('Listing out possibilities'!$D15:$E15)</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>57</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="C16" s="32"/>
       <c r="D16" s="39">
         <v>2</v>
       </c>
@@ -1705,9 +1673,7 @@
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>13</v>
-      </c>
+      <c r="C17" s="32"/>
       <c r="D17" s="33">
         <v>3</v>
       </c>
@@ -1718,17 +1684,13 @@
         <f>AVERAGE('Listing out possibilities'!$D17:$E17)</f>
         <v>3</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="32"/>
       <c r="D18" s="39">
         <v>3</v>
       </c>
@@ -1739,17 +1701,13 @@
         <f>AVERAGE('Listing out possibilities'!$D18:$E18)</f>
         <v>3</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>32</v>
-      </c>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>26</v>
-      </c>
+      <c r="C19" s="32"/>
       <c r="D19" s="33">
         <v>2</v>
       </c>
@@ -1764,11 +1722,9 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C20" s="32"/>
       <c r="D20" s="39">
         <v>3</v>
       </c>
@@ -1783,11 +1739,9 @@
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="33">
         <v>1</v>
       </c>
@@ -1805,11 +1759,9 @@
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C22" s="32"/>
       <c r="D22" s="39">
         <v>3</v>
       </c>
@@ -1821,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AB22" s="2">
         <v>2</v>
@@ -1829,11 +1781,9 @@
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C23" s="32"/>
       <c r="D23" s="33">
         <v>3</v>
       </c>
@@ -1851,11 +1801,9 @@
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C24" s="32"/>
       <c r="D24" s="39">
         <v>3</v>
       </c>
@@ -1870,7 +1818,7 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33">
@@ -1887,7 +1835,7 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="39">
@@ -1904,7 +1852,7 @@
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="33">
@@ -1921,7 +1869,7 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="39">
@@ -1938,7 +1886,7 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="33">
@@ -1955,7 +1903,7 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="39">
@@ -1972,7 +1920,7 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="33">
@@ -1989,7 +1937,7 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="39">
@@ -2006,7 +1954,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="33">
@@ -2023,7 +1971,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="39">
@@ -2040,7 +1988,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="39">
@@ -2057,7 +2005,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="39">
@@ -2074,7 +2022,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="33">
@@ -2093,7 +2041,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="39">
@@ -2110,7 +2058,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="39">
@@ -2127,7 +2075,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="39">
@@ -2144,7 +2092,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="33">
@@ -2161,7 +2109,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="40">
@@ -2312,7 +2260,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:E42" xr:uid="{FAC2388D-7AEF-4B50-BD14-775D43FDB4DF}">
       <formula1>$AB$21:$AB$23</formula1>
     </dataValidation>

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F4AE7-88E8-4AF8-BA54-8EBAB2674F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF87127-8646-4FE9-B6C4-BAD3176EA076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>No expertise on RPA</t>
+  </si>
+  <si>
+    <t>Make an function in excel to create hyperlink to post to web whatsapp</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
   <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,16 +1659,18 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="29">
         <f>AVERAGE('Listing out possibilities'!$D16:$E16)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="37"/>
     </row>

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF87127-8646-4FE9-B6C4-BAD3176EA076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C4DC97-017B-4C0C-BB7C-6DA85F046417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>TRAFFIC LIGHT MODEL</t>
-  </si>
-  <si>
-    <t>not tested</t>
   </si>
   <si>
     <t>P13</t>
@@ -228,28 +225,25 @@
     </r>
   </si>
   <si>
-    <t>Customer Support executive</t>
-  </si>
-  <si>
     <t>Fast &amp; Economic</t>
   </si>
   <si>
-    <t>Have a separate phone for sending this whatsapp</t>
-  </si>
-  <si>
-    <t>Sending "How-To" video by whatsapp to new customer based on excel data</t>
-  </si>
-  <si>
-    <t>RPA to read excel and then post into Whatsapp</t>
-  </si>
-  <si>
-    <t>Have another executice handle this step</t>
-  </si>
-  <si>
-    <t>No expertise on RPA</t>
-  </si>
-  <si>
-    <t>Make an function in excel to create hyperlink to post to web whatsapp</t>
+    <t>Identify which mentee or squad needs mentoring</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Make a report with Power BI</t>
+  </si>
+  <si>
+    <t>No expertise in Power BI</t>
+  </si>
+  <si>
+    <t>Make a report screen with Vue.js + microservices</t>
+  </si>
+  <si>
+    <t>Need to develop APIs &amp; Slice &amp; Dice front end screen</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
   <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1453,7 @@
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="47" t="s">
@@ -1520,17 +1514,17 @@
     <row r="7" spans="2:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
@@ -1541,10 +1535,10 @@
     <row r="9" spans="2:9" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -1555,10 +1549,10 @@
     <row r="10" spans="2:9" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -1601,57 +1595,57 @@
         <v>2</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="33">
         <v>1</v>
       </c>
       <c r="E13" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="28">
         <f>AVERAGE('Listing out possibilities'!$D13:$E13)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="36"/>
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="39">
         <v>1</v>
       </c>
       <c r="E14" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="29">
         <f>AVERAGE('Listing out possibilities'!$D14:$E14)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="32"/>
       <c r="D15" s="33">
         <v>1</v>
       </c>
       <c r="E15" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="28">
         <f>AVERAGE('Listing out possibilities'!$D15:$E15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="36"/>
     </row>
@@ -1659,9 +1653,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="32"/>
       <c r="D16" s="39">
         <v>3</v>
       </c>
@@ -1679,10 +1671,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="33">
-        <v>3</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="39">
+        <v>3</v>
+      </c>
+      <c r="E17" s="39">
         <v>3</v>
       </c>
       <c r="F17" s="28">
@@ -1713,15 +1705,15 @@
         <v>10</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="33">
-        <v>2</v>
-      </c>
-      <c r="E19" s="33">
-        <v>2</v>
+      <c r="D19" s="39">
+        <v>3</v>
+      </c>
+      <c r="E19" s="39">
+        <v>3</v>
       </c>
       <c r="F19" s="28">
         <f>AVERAGE('Listing out possibilities'!$D19:$E19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="36"/>
     </row>
@@ -1747,15 +1739,15 @@
         <v>14</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="33">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <v>1</v>
+      <c r="D21" s="39">
+        <v>3</v>
+      </c>
+      <c r="E21" s="39">
+        <v>3</v>
       </c>
       <c r="F21" s="28">
         <f>AVERAGE('Listing out possibilities'!$D21:$E21)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="36"/>
       <c r="AB21" s="2">
@@ -1777,9 +1769,7 @@
         <f>AVERAGE('Listing out possibilities'!$D22:$E22)</f>
         <v>3</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="G22" s="37"/>
       <c r="AB22" s="2">
         <v>2</v>
       </c>
@@ -1789,10 +1779,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="33">
-        <v>3</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="D23" s="39">
+        <v>3</v>
+      </c>
+      <c r="E23" s="39">
         <v>3</v>
       </c>
       <c r="F23" s="28">
@@ -1813,23 +1803,23 @@
         <v>3</v>
       </c>
       <c r="E24" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="29">
         <f>AVERAGE('Listing out possibilities'!$D24:$E24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="32"/>
-      <c r="D25" s="33">
-        <v>3</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="39">
+        <v>3</v>
+      </c>
+      <c r="E25" s="39">
         <v>3</v>
       </c>
       <c r="F25" s="28">
@@ -1840,7 +1830,7 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="39">
@@ -1857,13 +1847,13 @@
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="33">
-        <v>3</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="D27" s="39">
+        <v>3</v>
+      </c>
+      <c r="E27" s="39">
         <v>3</v>
       </c>
       <c r="F27" s="28">
@@ -1874,7 +1864,7 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="39">
@@ -1891,13 +1881,13 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="33">
-        <v>3</v>
-      </c>
-      <c r="E29" s="33">
+      <c r="D29" s="39">
+        <v>3</v>
+      </c>
+      <c r="E29" s="39">
         <v>3</v>
       </c>
       <c r="F29" s="28">
@@ -1908,7 +1898,7 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="39">
@@ -1925,13 +1915,13 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="33">
-        <v>3</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="39">
+        <v>3</v>
+      </c>
+      <c r="E31" s="39">
         <v>3</v>
       </c>
       <c r="F31" s="28">
@@ -1942,7 +1932,7 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="39">
@@ -1959,13 +1949,13 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="34"/>
-      <c r="D33" s="33">
-        <v>3</v>
-      </c>
-      <c r="E33" s="33">
+      <c r="D33" s="39">
+        <v>3</v>
+      </c>
+      <c r="E33" s="39">
         <v>3</v>
       </c>
       <c r="F33" s="28">
@@ -1976,7 +1966,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="39">
@@ -1993,7 +1983,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="39">
@@ -2010,7 +2000,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="39">
@@ -2027,13 +2017,13 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="33">
-        <v>3</v>
-      </c>
-      <c r="E37" s="33">
+      <c r="D37" s="39">
+        <v>3</v>
+      </c>
+      <c r="E37" s="39">
         <v>3</v>
       </c>
       <c r="F37" s="28">
@@ -2046,7 +2036,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="39">
@@ -2063,7 +2053,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="39">
@@ -2080,7 +2070,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="39">
@@ -2097,7 +2087,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="33">
@@ -2114,7 +2104,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="40">

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C4DC97-017B-4C0C-BB7C-6DA85F046417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8A1FA-2A05-4DEB-9391-DCE1C4F61585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Need to develop APIs &amp; Slice &amp; Dice front end screen</t>
+  </si>
+  <si>
+    <t>Start excel</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
   <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,16 +1639,18 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="33">
         <v>3</v>
       </c>
       <c r="F15" s="28">
         <f>AVERAGE('Listing out possibilities'!$D15:$E15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="36"/>
     </row>

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\hipoha-framework\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8A1FA-2A05-4DEB-9391-DCE1C4F61585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F17BB9-16C1-4A22-975B-9B51AA970BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
   <sheets>
     <sheet name="Listing out possibilities" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -234,19 +234,16 @@
     <t>Mentor</t>
   </si>
   <si>
-    <t>Make a report with Power BI</t>
-  </si>
-  <si>
-    <t>No expertise in Power BI</t>
-  </si>
-  <si>
-    <t>Make a report screen with Vue.js + microservices</t>
-  </si>
-  <si>
-    <t>Need to develop APIs &amp; Slice &amp; Dice front end screen</t>
-  </si>
-  <si>
-    <t>Start excel</t>
+    <t>Make a mobile web app for customer registartion</t>
+  </si>
+  <si>
+    <t>Make an android/ios app for customer registation</t>
+  </si>
+  <si>
+    <t>Use Google forms/spreadsheet</t>
+  </si>
+  <si>
+    <t>Use excel</t>
   </si>
 </sst>
 </file>
@@ -1434,27 +1431,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
   <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="72" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1469,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
       <c r="D3" s="48"/>
       <c r="E3" s="13">
@@ -1485,7 +1482,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="D4" s="49"/>
       <c r="E4" s="15">
@@ -1498,7 +1495,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="D5" s="45"/>
       <c r="E5" s="44"/>
@@ -1507,21 +1504,21 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="12"/>
       <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="2:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="43" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="42" t="s">
         <v>40</v>
@@ -1535,7 +1532,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="2:9" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
         <v>41</v>
@@ -1549,7 +1546,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:9" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="s">
         <v>42</v>
@@ -1563,7 +1560,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="22"/>
       <c r="D11" s="46"/>
@@ -1573,7 +1570,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>0</v>
       </c>
@@ -1593,54 +1590,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="28">
         <f>AVERAGE('Listing out possibilities'!$D13:$E13)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="39">
         <v>1</v>
       </c>
       <c r="E14" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="29">
         <f>AVERAGE('Listing out possibilities'!$D14:$E14)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="33">
         <v>3</v>
@@ -1654,11 +1647,13 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="39">
         <v>3</v>
       </c>
@@ -1671,7 +1666,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1688,7 +1683,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1700,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1717,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1739,7 +1734,7 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1811,7 @@
       </c>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1828,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1845,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1862,7 @@
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1879,7 @@
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +1896,7 @@
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1918,7 +1913,7 @@
       </c>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +1930,7 @@
       </c>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +1947,7 @@
       </c>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +1964,7 @@
       </c>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1986,7 +1981,7 @@
       </c>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +1998,7 @@
       </c>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2020,7 +2015,7 @@
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2039,7 +2034,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,7 +2051,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
@@ -2073,7 +2068,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2085,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2102,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="30" t="s">
         <v>37</v>
       </c>

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hipoha-framework\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F17BB9-16C1-4A22-975B-9B51AA970BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67204F0A-CDF1-4955-A6A9-FBDCAFEFFFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
   <sheets>
     <sheet name="Listing out possibilities" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -225,25 +225,28 @@
     </r>
   </si>
   <si>
-    <t>Fast &amp; Economic</t>
-  </si>
-  <si>
-    <t>Identify which mentee or squad needs mentoring</t>
-  </si>
-  <si>
-    <t>Mentor</t>
-  </si>
-  <si>
-    <t>Make a mobile web app for customer registartion</t>
-  </si>
-  <si>
-    <t>Make an android/ios app for customer registation</t>
-  </si>
-  <si>
-    <t>Use Google forms/spreadsheet</t>
-  </si>
-  <si>
-    <t>Use excel</t>
+    <t>Fast &amp; Easy</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Feature Development - Step 2.1.1 - Techinal Feasibility </t>
+  </si>
+  <si>
+    <t>Reach out a SME</t>
+  </si>
+  <si>
+    <t>Doing a POC</t>
+  </si>
+  <si>
+    <t>Already done inside/outside Unisys</t>
+  </si>
+  <si>
+    <t>Find CSA for Microsoft</t>
+  </si>
+  <si>
+    <t>Go through TAM</t>
   </si>
 </sst>
 </file>
@@ -1431,27 +1434,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2573A-FEAE-4632-8EED-3B01D309CD71}">
   <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="8.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="8.86328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="72" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="5" max="5" width="5.86328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.1328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.53125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.46484375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.46484375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1472,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="D3" s="48"/>
       <c r="E3" s="13">
@@ -1482,7 +1485,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="12"/>
       <c r="D4" s="49"/>
       <c r="E4" s="15">
@@ -1495,7 +1498,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12"/>
       <c r="D5" s="45"/>
       <c r="E5" s="44"/>
@@ -1504,27 +1507,27 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B6" s="12"/>
       <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="2:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="12"/>
       <c r="C7" s="43" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="17"/>
       <c r="C8" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
@@ -1532,13 +1535,13 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="2:9" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -1546,7 +1549,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:9" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="17"/>
       <c r="C10" s="21" t="s">
         <v>42</v>
@@ -1560,7 +1563,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="12"/>
       <c r="C11" s="22"/>
       <c r="D11" s="46"/>
@@ -1570,7 +1573,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="23" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,10 +1601,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="33">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33">
         <v>2</v>
-      </c>
-      <c r="E13" s="33">
-        <v>3</v>
       </c>
       <c r="F13" s="28">
         <f>AVERAGE('Listing out possibilities'!$D13:$E13)</f>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1617,18 +1620,18 @@
         <v>47</v>
       </c>
       <c r="D14" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="39">
         <v>2</v>
       </c>
       <c r="F14" s="29">
         <f>AVERAGE('Listing out possibilities'!$D14:$E14)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1639,15 +1642,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="28">
         <f>AVERAGE('Listing out possibilities'!$D15:$E15)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1664,9 +1667,11 @@
         <f>AVERAGE('Listing out possibilities'!$D16:$E16)</f>
         <v>3</v>
       </c>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="G16" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1688,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1705,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1722,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1734,7 +1739,7 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1816,7 @@
       </c>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1833,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1845,7 +1850,7 @@
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1867,7 @@
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1884,7 @@
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1913,7 +1918,7 @@
       </c>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1935,7 @@
       </c>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1947,7 +1952,7 @@
       </c>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1964,7 +1969,7 @@
       </c>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1981,7 +1986,7 @@
       </c>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +2003,7 @@
       </c>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2015,7 +2020,7 @@
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,7 +2039,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,7 +2056,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
@@ -2068,7 +2073,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
@@ -2085,7 +2090,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
@@ -2102,7 +2107,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="30" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2260,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:E42" xr:uid="{FAC2388D-7AEF-4B50-BD14-775D43FDB4DF}">
       <formula1>$AB$21:$AB$23</formula1>
     </dataValidation>

--- a/Downloads/Possibility Filter V6.xlsx
+++ b/Downloads/Possibility Filter V6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\hipoha-framework\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67204F0A-CDF1-4955-A6A9-FBDCAFEFFFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD2F21-BA89-498A-A7A4-1F2D6A820CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{B3A634E3-7B0D-49A1-AC45-20D6757FFE73}"/>
   </bookViews>
@@ -240,13 +240,13 @@
     <t>Doing a POC</t>
   </si>
   <si>
-    <t>Already done inside/outside Unisys</t>
-  </si>
-  <si>
     <t>Find CSA for Microsoft</t>
   </si>
   <si>
     <t>Go through TAM</t>
+  </si>
+  <si>
+    <t>Already done inside/outside Company</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1435,7 @@
   <dimension ref="B1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1636,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" s="33">
         <v>3</v>
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="39">
         <v>3</v>
@@ -1668,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.45">
